--- a/nba2k_editor/Offsets/ImportTeams.xlsx
+++ b/nba2k_editor/Offsets/ImportTeams.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Vitals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Info" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Players" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stats Edit" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Business" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Budget" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Colors" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Jerseys" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Stadium" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Uniform" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Team Vitals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Team Info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Team Players" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Team Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Team Stats Edit" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Team Business" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Team Budget" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Team Colors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Team Jerseys" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Team Stadium" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Team Uniform" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,16 +27,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -55,21 +52,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -444,362 +432,362 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>2ND_LOGO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>3D_LOGO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>3D_MIRROR_LOGO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ABB</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ADVANCED_ROTATION</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Arena File Name</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Arena Name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>AUDIO_SIGNATURE_CRC32B</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>CHEMISTRY</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>CITY</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>City Abbrev</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>City Name</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>City Short Name</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>CLASSIC_TEAM_YEAR</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Crowd Id</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>CURRENT_INDEX</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>CUT_SCENE_LOGO</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>FAN_INTEREST</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>G-LEAGUE_TEAM</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Historic Year</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>IS_DOWNTOWN</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>LED Id</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Logo 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Logo 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Logo 3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Logo 4</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Logo 5</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Logo 6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Logo 7</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>LONGEST_LOSS_STREAK</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>LONGEST_WIN_STREAK</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>LUXURY_TAX</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>MAINLOGO</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Mantra</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>MASCOT_SIZE</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>METRO_INCOME_M</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>METRO_POPULATION</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>MLE_REMAINING</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>MLE_TYPE</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Mural Logo</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>NENO_LOGO#A</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>NENO_LOGO#B</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>NON_BIRD_EXCEPTION_AVAILABLE</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Pa Sound ld</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>PA_SOUND_ID</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Play By Play Sound ld</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>PLAY_BY_PLAY_SOUND_ID</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>POPULARITY</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>RIVAL#1</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>RIVAL#2</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>RIVAL#3</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Roster Type</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>SALARY</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>SHOT_METER_COLOR</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>SHOW_CITY_IN_NAME</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Stadium</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>State Short Name</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Team Name</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>TEAMCOLOR#1</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>TEAMCOLOR#2</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>TEAMCOLOR#3</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>TEXT_DARK</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>TEXT_LIGHT</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>TV_HOMES</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>Unique ID</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>Unique Signature CRC32B</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>USER_EDITED</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>WM_LOGO</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>WM_LOGO_ALT</t>
         </is>
@@ -825,47 +813,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Arena Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Arena Nickname</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Stadium Arena ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Stadium City Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Stadium City Short Name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Stadium Dornas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Stadium Floor ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Stadium LED ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Stadium State Short Name</t>
         </is>
@@ -891,12 +879,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Practice Jersey Away</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Practice Jersey Home</t>
         </is>
@@ -922,97 +910,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Division</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Fan Interest</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>G-League Team Address</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Longest Loss Streak</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Longest Win Streak</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>LUXURY_TAX</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Mascot Size</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Metro Income M</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Metro Population</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>MLE Remaining</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>MLE Type</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Non Bird Exception Available</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Promotions</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Rival 1 Team</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Rival 2 Team</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Rival 3 Team</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Team Chemistry</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Tv Homes</t>
         </is>
@@ -1038,92 +1026,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Player 1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Player 10</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Player 11</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Player 12</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Player 13</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Player 14</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Player 15</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Player 2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Player 3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Player 4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Player 5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Player 6</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Player 7</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Player 8</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Player 9</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Two Way Player 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Two Way Player 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Two Way Player 3</t>
         </is>
@@ -1149,192 +1137,192 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>CHAMPIONSHIPS</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>CONFERENCE_CHAMPIONSHIPS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>CURRENT_YEAR_STATS</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>DIVISION_TITLES</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>FIRST_PICKS_COUNT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>HISTORIC_LOSSES</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>HISTORIC_WIN</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>LAST_LOTTERY_YEAR</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>LAST_NON-LOTTERY_YEAR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>LAST_PLAYOFF_YEAR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>LAST_YEAR_PLAYOFFS_OPPONENT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>LAST_YEAR_PLAYOFFS_ROUND</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>LAST_YEAR_PLAYOFFS_SERIES_GAMES</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>LOTTERY_PICKS_COUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>PLAYOFF_APPEARANCES</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>STATS_ID#1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>STATS_ID#2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>STATS_ID#3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>STATS_ID#4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>STATS_ID#5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>STATS_ID#6</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>STATS_ID#7</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>STATS_ID#8</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>STATS_ID#9</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>STATS_ID#10</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>STATS_ID#11</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>STATS_ID#12</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>STATS_ID#13</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>STATS_ID#14</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>STATS_ID#15</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>STATS_ID#16</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>STATS_ID#17</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>STATS_ID#18</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>STATS_ID#19</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>STATS_ID#20</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>STATS_ID#21</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>STATS_ID#22</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>STATS_ID#23</t>
         </is>
@@ -1360,137 +1348,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>2NDPTS</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>3PT_ATTEMPTED</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>3PT_MADE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>ASSISTS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ATTEMPTED</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>BENCH</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>BLOCKS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>DEFENSIVE_REBOUNDS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>FOUL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>FREE_THROWS_ATTEMPTED</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>FREE_THROWS_MADE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>MADE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>O3PA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>O3PM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>OFFENSIVE_REBOUNDS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>OFGA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>OFGM</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>PACE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>PIP</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>POINTS</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>POSS</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>PTS-TO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>STEALS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>TURNOVER</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1516,152 +1504,152 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ARENA_OPERATIONS</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>BURGER</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>COFFEE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Concession Prices</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>CONCESSIONS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>GATE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>HAT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>HOT_DOG</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ICE_CREAM</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>IN-ARENA_ADVERTISING</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Luxury Box Prices</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>MEDIA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>MERCHANDISE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>NACHOS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>PARKING</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>PLAYER_BUDGET</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>PLAYER_PAYROLL</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>PLAYOFFS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>PLAYOFFS#1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>PROGRAM</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>PROMOTIONS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>RESTAURANT</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>SODA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>SOUVENIR</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>STAFF_BUDGET</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>STAFF_PAYROLL</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Team Business - TICKET</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>TEAM_OPERATIONS</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>TEAM_OPERATIONS#1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>UNALLOCATED_FUNDS</t>
         </is>
@@ -1687,22 +1675,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Arena Operations</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Player Payroll</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Staff Payroll</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Team Operations</t>
         </is>
@@ -1728,17 +1716,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Shot Meter Color</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Text Dark</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Text Light</t>
         </is>
@@ -1764,172 +1752,172 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Jersey #1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Jersey #2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Jersey #3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Jersey #4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Jersey #5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Jersey #6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Jersey #7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Jersey #8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Jersey #9</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Jersey #10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Jersey #11</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Jersey #12</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Jersey #13</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Jersey #14</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Jersey #15</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Jersey #16</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Jersey #17</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Jersey #18</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Jersey #19</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Jersey #20</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Jersey #21</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Jersey #22</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Jersey #23</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Jersey #24</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Jersey #25</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Jersey #26</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Jersey #27</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Jersey #28</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Jersey #29</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Jersey #30</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>JERSEY_AWAY</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>JERSEY_HOME</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Practice Jersey Away</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Practice Jersey Home</t>
         </is>
